--- a/src/team_data/Sunrisers_SriLanka/Sunrisers_SriLanka.xlsx
+++ b/src/team_data/Sunrisers_SriLanka/Sunrisers_SriLanka.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\1st Year\1st Trimester\CM1601 [PRO]  Programming Fundamentals\Course Work\team_data\Sunrisers_SriLanka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C79722E-B759-4725-A2A9-581C18AF0658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7C79722E-B759-4725-A2A9-581C18AF0658}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-16575" yWindow="-1530" windowWidth="15375" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11685" windowWidth="15375" xWindow="-16575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-1530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>PLAYER NAME</t>
   </si>
@@ -74,12 +74,16 @@
   </si>
   <si>
     <t>Dhananjaya de Silva</t>
+  </si>
+  <si>
+    <t>MADAM GOTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,19 +134,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -159,10 +163,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -197,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +358,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -363,13 +367,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -379,7 +383,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -388,7 +392,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -397,7 +401,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -407,12 +411,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -443,7 +447,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -462,7 +466,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -474,8 +478,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -483,7 +487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,7 +712,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -727,6 +731,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>